--- a/docs/Check.xlsx
+++ b/docs/Check.xlsx
@@ -11,9 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="59">
-  <si>
-    <t>Кейс</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="65">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Приоритет</t>
   </si>
   <si>
     <t>Пройден</t>
@@ -25,6 +31,9 @@
     <t>Проверка наличия логотипа, лоадера и цитат(одна из 17 при запуске).</t>
   </si>
   <si>
+    <t>Normal</t>
+  </si>
+  <si>
     <t>+</t>
   </si>
   <si>
@@ -34,6 +43,9 @@
     <t>Верный логин и пароль.</t>
   </si>
   <si>
+    <t>Blocker</t>
+  </si>
+  <si>
     <t>Неверный логин / пароль → Ошибка.</t>
   </si>
   <si>
@@ -46,6 +58,9 @@
     <t>Выход и возврат на экран авторизации.</t>
   </si>
   <si>
+    <t>Critical</t>
+  </si>
+  <si>
     <t>Навигация</t>
   </si>
   <si>
@@ -68,6 +83,9 @@
   </si>
   <si>
     <t>Новости. Список. Раскрытие и скрытие списка.</t>
+  </si>
+  <si>
+    <t>Minor</t>
   </si>
   <si>
     <t>Новости. Нажатие на "Все новости" переводит на страницу всех новостей</t>
@@ -227,12 +245,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -452,507 +473,842 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="95.5"/>
+    <col customWidth="1" min="2" max="2" width="95.5"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
+      <c r="A2" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
+      <c r="A4" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
+      <c r="A5" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
+      <c r="A6" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="A7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
+      <c r="A8" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="D21" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="D23" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="D36" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="C37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="C38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
+        <v>29.0</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="C39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="D44" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="C56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="C57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>4</v>
+      <c r="C58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>4</v>
+      <c r="A59" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>4</v>
+      <c r="A60" s="1">
+        <v>46.0</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="s">
-        <v>52</v>
+      <c r="A61" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>4</v>
+      <c r="A62" s="1">
+        <v>47.0</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>4</v>
+      <c r="A63" s="1">
+        <v>48.0</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="s">
-        <v>55</v>
+      <c r="A64" s="1">
+        <v>49.0</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>4</v>
+        <v>61</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="s">
-        <v>56</v>
+      <c r="A65" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>4</v>
+      <c r="A66" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>4</v>
+      <c r="A67" s="1">
+        <v>51.0</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A19:D19"/>
+  </mergeCells>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C3 C5:C7 C9 C11:C12 C14:C15 C17:C18 C20:C30 C32:C34 C36:C40 C42:C45 C47:C49 C51:C54 C56:C60 C62:C64 C66:C67">
+      <formula1>"Blocker,Critical,Normal,Minor"</formula1>
+    </dataValidation>
+  </dataValidations>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>